--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satissingh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satissingh\Documents\Important\VBScripting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33C5F3-B0A8-4477-AF52-5FDEBEAE73A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6294FC-4408-492A-96F1-B8B8AAFE4450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{9220BF0C-AA4C-46F0-A585-2475B188D6F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Raghu</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
@@ -397,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B695949B-7334-476C-9911-80699AADFC1A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -427,6 +432,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
